--- a/1.Supplementary/Supplementary Data 3.xlsx
+++ b/1.Supplementary/Supplementary Data 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkuhk-my.sharepoint.com/personal/iguibert_hku_hk/Documents/Research/Publications/2021-SIBER-CLAMS/1.June24_clams_paper/1_For_publication/18. Communication Biology/Revision/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkuhk-my.sharepoint.com/personal/iguibert_hku_hk/Documents/Research/Publications/2021-SIBER-CLAMS/1.June24_clams_paper/1_For_publication/18. Communication Biology/Revision/1_Final_Revision_Acceptance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6954B4DF-339F-2F4D-846E-6A9DC80A387A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{6954B4DF-339F-2F4D-846E-6A9DC80A387A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE3172BD-39AC-E74F-BCC1-3F9E5748F5DE}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="-19360" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8520" yWindow="-19360" windowWidth="25600" windowHeight="14580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -204,170 +204,170 @@
     <t>D5/D9b-D4-D1bq-D5x</t>
   </si>
   <si>
+    <t>H. hippopus</t>
+  </si>
+  <si>
+    <t>H. porcellanus</t>
+  </si>
+  <si>
+    <t>T. derasa</t>
+  </si>
+  <si>
+    <t>T. gigas</t>
+  </si>
+  <si>
+    <t>T. maxima</t>
+  </si>
+  <si>
+    <t>T. squamosa</t>
+  </si>
+  <si>
+    <t>Sequences</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>SampleID</t>
+  </si>
+  <si>
+    <t>SRA (sequence Read Archive)</t>
+  </si>
+  <si>
+    <t>BioSample</t>
+  </si>
+  <si>
+    <t>BioProject</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>SRR15234613</t>
+  </si>
+  <si>
+    <t>SAMN20367967</t>
+  </si>
+  <si>
+    <t>PRJNA749183</t>
+  </si>
+  <si>
+    <t>Semirara</t>
+  </si>
+  <si>
+    <t>SRR15234612</t>
+  </si>
+  <si>
+    <t>SAMN20367968</t>
+  </si>
+  <si>
+    <t>SRR15234603</t>
+  </si>
+  <si>
+    <t>SAMN20367969</t>
+  </si>
+  <si>
+    <t>SRR15234602</t>
+  </si>
+  <si>
+    <t>SAMN20367970</t>
+  </si>
+  <si>
+    <t>SRR15234601</t>
+  </si>
+  <si>
+    <t>SAMN20367971</t>
+  </si>
+  <si>
+    <t>SRR15234600</t>
+  </si>
+  <si>
+    <t>SAMN20367972</t>
+  </si>
+  <si>
+    <t>SRR15234610</t>
+  </si>
+  <si>
+    <t>SAMN20367978</t>
+  </si>
+  <si>
+    <t>SRR15234596</t>
+  </si>
+  <si>
+    <t>SAMN20367976</t>
+  </si>
+  <si>
+    <t>SRR15234611</t>
+  </si>
+  <si>
+    <t>SAMN20367977</t>
+  </si>
+  <si>
+    <t>SRR15234609</t>
+  </si>
+  <si>
+    <t>SAMN20367979</t>
+  </si>
+  <si>
+    <t>SRR15234608</t>
+  </si>
+  <si>
+    <t>SAMN20367980</t>
+  </si>
+  <si>
+    <t>SRR15234607</t>
+  </si>
+  <si>
+    <t>SAMN20367981</t>
+  </si>
+  <si>
+    <t>SRR34069339</t>
+  </si>
+  <si>
+    <t>SAMN49506094</t>
+  </si>
+  <si>
+    <t>Silaqui</t>
+  </si>
+  <si>
+    <t>SRR34069338</t>
+  </si>
+  <si>
+    <t>SAMN49506095</t>
+  </si>
+  <si>
+    <t>SRR34069337</t>
+  </si>
+  <si>
+    <t>SAMN49506096</t>
+  </si>
+  <si>
+    <t>SRR34069344</t>
+  </si>
+  <si>
+    <t>SAMN49506124</t>
+  </si>
+  <si>
+    <t>SRR34069343</t>
+  </si>
+  <si>
+    <t>SAMN49506125</t>
+  </si>
+  <si>
+    <t>SRR34069342</t>
+  </si>
+  <si>
+    <t>SAMN49506126</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 
- Supplementary 4: 
+ Supplementary data 3: 
  16 most abundant IT2S type profiles from the symbionts of 18 giant clams (6 species: Hippopus hippopus (Hh), Hippopus porcellanus (Hp), Tridacna derasa (Td), Tridacna gigas (Tg), Tridacna maxima (Tm) and Tridacna squamosa (Ts); 2 locations: Sem: Semirara, Sil: Silaqui)</t>
   </si>
   <si>
-    <t>H. hippopus</t>
-  </si>
-  <si>
-    <t>H. porcellanus</t>
-  </si>
-  <si>
-    <t>T. derasa</t>
-  </si>
-  <si>
-    <t>T. gigas</t>
-  </si>
-  <si>
-    <t>T. maxima</t>
-  </si>
-  <si>
-    <t>T. squamosa</t>
-  </si>
-  <si>
-    <t>Sequences</t>
-  </si>
-  <si>
-    <t>Profile</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 
- Supplementary 4: 
+ Supplementary data 3: 
  Sequences accession numbers</t>
-  </si>
-  <si>
-    <t>SampleID</t>
-  </si>
-  <si>
-    <t>SRA (sequence Read Archive)</t>
-  </si>
-  <si>
-    <t>BioSample</t>
-  </si>
-  <si>
-    <t>BioProject</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>SRR15234613</t>
-  </si>
-  <si>
-    <t>SAMN20367967</t>
-  </si>
-  <si>
-    <t>PRJNA749183</t>
-  </si>
-  <si>
-    <t>Semirara</t>
-  </si>
-  <si>
-    <t>SRR15234612</t>
-  </si>
-  <si>
-    <t>SAMN20367968</t>
-  </si>
-  <si>
-    <t>SRR15234603</t>
-  </si>
-  <si>
-    <t>SAMN20367969</t>
-  </si>
-  <si>
-    <t>SRR15234602</t>
-  </si>
-  <si>
-    <t>SAMN20367970</t>
-  </si>
-  <si>
-    <t>SRR15234601</t>
-  </si>
-  <si>
-    <t>SAMN20367971</t>
-  </si>
-  <si>
-    <t>SRR15234600</t>
-  </si>
-  <si>
-    <t>SAMN20367972</t>
-  </si>
-  <si>
-    <t>SRR15234610</t>
-  </si>
-  <si>
-    <t>SAMN20367978</t>
-  </si>
-  <si>
-    <t>SRR15234596</t>
-  </si>
-  <si>
-    <t>SAMN20367976</t>
-  </si>
-  <si>
-    <t>SRR15234611</t>
-  </si>
-  <si>
-    <t>SAMN20367977</t>
-  </si>
-  <si>
-    <t>SRR15234609</t>
-  </si>
-  <si>
-    <t>SAMN20367979</t>
-  </si>
-  <si>
-    <t>SRR15234608</t>
-  </si>
-  <si>
-    <t>SAMN20367980</t>
-  </si>
-  <si>
-    <t>SRR15234607</t>
-  </si>
-  <si>
-    <t>SAMN20367981</t>
-  </si>
-  <si>
-    <t>SRR34069339</t>
-  </si>
-  <si>
-    <t>SAMN49506094</t>
-  </si>
-  <si>
-    <t>Silaqui</t>
-  </si>
-  <si>
-    <t>SRR34069338</t>
-  </si>
-  <si>
-    <t>SAMN49506095</t>
-  </si>
-  <si>
-    <t>SRR34069337</t>
-  </si>
-  <si>
-    <t>SAMN49506096</t>
-  </si>
-  <si>
-    <t>SRR34069344</t>
-  </si>
-  <si>
-    <t>SAMN49506124</t>
-  </si>
-  <si>
-    <t>SRR34069343</t>
-  </si>
-  <si>
-    <t>SAMN49506125</t>
-  </si>
-  <si>
-    <t>SRR34069342</t>
-  </si>
-  <si>
-    <t>SAMN49506126</t>
   </si>
 </sst>
 </file>
@@ -438,13 +438,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -454,6 +447,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,6 +469,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -671,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U985"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -690,132 +694,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
@@ -877,10 +881,10 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
@@ -942,10 +946,10 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
@@ -1007,10 +1011,10 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
@@ -1072,10 +1076,10 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
@@ -1137,10 +1141,10 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C10" t="s">
@@ -1202,10 +1206,10 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
@@ -1267,10 +1271,10 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C12" t="s">
@@ -1332,10 +1336,10 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C13" t="s">
@@ -1397,10 +1401,10 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C14" t="s">
@@ -1462,10 +1466,10 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C15" t="s">
@@ -1527,10 +1531,10 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C16" t="s">
@@ -1592,10 +1596,10 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C17" t="s">
@@ -1657,10 +1661,10 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C18" t="s">
@@ -1722,10 +1726,10 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C19" t="s">
@@ -1787,10 +1791,10 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C20" t="s">
@@ -2835,8 +2839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85F8801-C4B1-B64C-A940-1DAF0897F2D8}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2847,249 +2851,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="C4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="8" t="s">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>71</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>73</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>75</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>77</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>79</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
         <v>81</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>83</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>85</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
         <v>87</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>89</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
         <v>91</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>71</v>
+      <c r="D15" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -3097,16 +3101,16 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3114,16 +3118,16 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="6" t="s">
         <v>97</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3131,16 +3135,16 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3148,16 +3152,16 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3165,16 +3169,16 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>97</v>
+        <v>103</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -3182,16 +3186,16 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>97</v>
+        <v>105</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
